--- a/src/main/resources/assets/_test/docs/xlsx/_IF016.xlsx
+++ b/src/main/resources/assets/_test/docs/xlsx/_IF016.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_dev\_workspace\sts4-workspace\pjt_hanwha_life_mvc\src\main\resources\_test\docs\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_dev\_workspace\workspace-spring-tool-suite4\pjt_hanwha_life_mvc\src\main\resources\_test\docs\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="IF016" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <t>수신서비스ID</t>
   </si>
   <si>
-    <t>iniUmsSendMgmtPSI004c</t>
+    <t>icmCnplSbsnKeyMgmtPSI001c</t>
   </si>
   <si>
     <t>수신서비스명</t>
@@ -1248,27 +1248,32 @@
   <dimension ref="A3:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C6" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1302,7 +1307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1325,7 +1330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1333,12 +1338,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1349,7 +1354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1363,7 +1368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1371,7 +1376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1399,7 +1404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1449,7 +1454,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -1463,7 +1468,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1501,7 +1506,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1539,7 +1544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1577,7 +1582,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1615,7 +1620,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1653,7 +1658,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1691,7 +1696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1729,7 +1734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1767,7 +1772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>9</v>
       </c>
@@ -1805,7 +1810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>10</v>
       </c>
@@ -1843,7 +1848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>11</v>
       </c>
@@ -1881,7 +1886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>12</v>
       </c>
@@ -1919,7 +1924,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>13</v>
       </c>
@@ -1957,7 +1962,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>14</v>
       </c>
@@ -1995,7 +2000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>15</v>
       </c>
@@ -2033,7 +2038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>16</v>
       </c>
@@ -2071,7 +2076,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>17</v>
       </c>
@@ -2109,7 +2114,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>18</v>
       </c>
@@ -2147,7 +2152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>19</v>
       </c>
@@ -2185,7 +2190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>20</v>
       </c>
@@ -2223,7 +2228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>21</v>
       </c>
@@ -2261,7 +2266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>22</v>
       </c>
@@ -2299,7 +2304,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>23</v>
       </c>
@@ -2337,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>24</v>
       </c>
@@ -2375,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>25</v>
       </c>
@@ -2413,7 +2418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>26</v>
       </c>
@@ -2451,7 +2456,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>27</v>
       </c>
@@ -2489,7 +2494,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>28</v>
       </c>
@@ -2527,7 +2532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>29</v>
       </c>
@@ -2565,7 +2570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>30</v>
       </c>
@@ -2603,7 +2608,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>31</v>
       </c>
@@ -2641,7 +2646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>32</v>
       </c>
@@ -2679,12 +2684,12 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -2737,7 +2742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>37</v>
       </c>
@@ -2751,7 +2756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>1</v>
       </c>

--- a/src/main/resources/assets/_test/docs/xlsx/_IF016.xlsx
+++ b/src/main/resources/assets/_test/docs/xlsx/_IF016.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_dev\_workspace\workspace-spring-tool-suite4\pjt_hanwha_life_mvc\src\main\resources\_test\docs\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_dev\_workspace\sts4-workspace\pjt_hanwha_life_mvc\src\main\resources\assets\_test\docs\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="IF016" sheetId="1" r:id="rId1"/>
@@ -1247,33 +1247,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C5:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1307,7 +1306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1330,7 +1329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1338,12 +1337,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1354,7 +1353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1368,7 +1367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1376,7 +1375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1390,7 +1389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1454,7 +1453,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1506,7 +1505,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1544,7 +1543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1582,7 +1581,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1620,7 +1619,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1772,7 +1771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9</v>
       </c>
@@ -1810,7 +1809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10</v>
       </c>
@@ -1848,7 +1847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>11</v>
       </c>
@@ -1886,7 +1885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>12</v>
       </c>
@@ -1924,7 +1923,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14</v>
       </c>
@@ -2000,7 +1999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>15</v>
       </c>
@@ -2038,7 +2037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>16</v>
       </c>
@@ -2076,7 +2075,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>17</v>
       </c>
@@ -2114,7 +2113,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>18</v>
       </c>
@@ -2152,7 +2151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>19</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>20</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>21</v>
       </c>
@@ -2266,7 +2265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>22</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>23</v>
       </c>
@@ -2342,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>24</v>
       </c>
@@ -2380,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>25</v>
       </c>
@@ -2418,7 +2417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>26</v>
       </c>
@@ -2456,7 +2455,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>27</v>
       </c>
@@ -2494,7 +2493,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>28</v>
       </c>
@@ -2532,7 +2531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>29</v>
       </c>
@@ -2570,7 +2569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>30</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>31</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>32</v>
       </c>
@@ -2684,12 +2683,12 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>37</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>

--- a/src/main/resources/assets/_test/docs/xlsx/_IF016.xlsx
+++ b/src/main/resources/assets/_test/docs/xlsx/_IF016.xlsx
@@ -54,9 +54,6 @@
     <t>수신서비스ID</t>
   </si>
   <si>
-    <t>icmCnplSbsnKeyMgmtPSI001c</t>
-  </si>
-  <si>
     <t>수신서비스명</t>
   </si>
   <si>
@@ -328,6 +325,10 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>cebPrsnCustMgmtPSI109c</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1247,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1311,160 +1312,160 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" t="s">
         <v>13</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="s">
+      <c r="S9" t="s">
         <v>19</v>
-      </c>
-      <c r="S9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
         <v>22</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
       <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
         <v>25</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
       <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
         <v>27</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>34</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>35</v>
       </c>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
       <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
         <v>29</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>30</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>31</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>32</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>33</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>35</v>
-      </c>
-      <c r="R14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
       <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
         <v>37</v>
-      </c>
-      <c r="L15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -1472,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
         <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
       </c>
       <c r="F16">
         <v>-1</v>
@@ -1490,16 +1491,16 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" t="s">
         <v>39</v>
       </c>
-      <c r="L16" t="s">
-        <v>40</v>
-      </c>
       <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
         <v>41</v>
-      </c>
-      <c r="N16" t="s">
-        <v>42</v>
       </c>
       <c r="O16">
         <v>-1</v>
@@ -1510,16 +1511,16 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
         <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>45</v>
       </c>
       <c r="F17">
         <v>19</v>
@@ -1528,16 +1529,16 @@
         <v>2</v>
       </c>
       <c r="K17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" t="s">
         <v>43</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s">
         <v>44</v>
-      </c>
-      <c r="M17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" t="s">
-        <v>45</v>
       </c>
       <c r="O17">
         <v>19</v>
@@ -1548,16 +1549,16 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18">
         <v>500</v>
@@ -1566,16 +1567,16 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" t="s">
         <v>46</v>
       </c>
-      <c r="L18" t="s">
-        <v>47</v>
-      </c>
       <c r="M18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O18">
         <v>500</v>
@@ -1586,16 +1587,16 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19">
         <v>4000</v>
@@ -1604,16 +1605,16 @@
         <v>4</v>
       </c>
       <c r="K19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" t="s">
         <v>49</v>
       </c>
-      <c r="L19" t="s">
-        <v>50</v>
-      </c>
       <c r="M19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O19">
         <v>4000</v>
@@ -1624,16 +1625,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
       <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
         <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
       </c>
       <c r="F20">
         <v>-1</v>
@@ -1642,16 +1643,16 @@
         <v>5</v>
       </c>
       <c r="K20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" t="s">
         <v>51</v>
       </c>
-      <c r="L20" t="s">
-        <v>52</v>
-      </c>
       <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" t="s">
         <v>41</v>
-      </c>
-      <c r="N20" t="s">
-        <v>42</v>
       </c>
       <c r="O20">
         <v>-1</v>
@@ -1662,16 +1663,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
         <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" t="s">
-        <v>45</v>
       </c>
       <c r="F21">
         <v>19</v>
@@ -1680,16 +1681,16 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" t="s">
         <v>43</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" t="s">
         <v>44</v>
-      </c>
-      <c r="M21" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" t="s">
-        <v>45</v>
       </c>
       <c r="O21">
         <v>19</v>
@@ -1700,16 +1701,16 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -1718,16 +1719,16 @@
         <v>7</v>
       </c>
       <c r="K22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" t="s">
         <v>53</v>
       </c>
-      <c r="L22" t="s">
-        <v>54</v>
-      </c>
       <c r="M22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O22">
         <v>10</v>
@@ -1738,16 +1739,16 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -1756,16 +1757,16 @@
         <v>8</v>
       </c>
       <c r="K23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" t="s">
         <v>55</v>
       </c>
-      <c r="L23" t="s">
-        <v>56</v>
-      </c>
       <c r="M23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O23">
         <v>10</v>
@@ -1776,16 +1777,16 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -1794,16 +1795,16 @@
         <v>9</v>
       </c>
       <c r="K24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" t="s">
         <v>57</v>
       </c>
-      <c r="L24" t="s">
-        <v>58</v>
-      </c>
       <c r="M24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O24">
         <v>5</v>
@@ -1814,16 +1815,16 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -1832,16 +1833,16 @@
         <v>10</v>
       </c>
       <c r="K25" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" t="s">
         <v>59</v>
       </c>
-      <c r="L25" t="s">
-        <v>60</v>
-      </c>
       <c r="M25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O25">
         <v>5</v>
@@ -1852,16 +1853,16 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -1870,16 +1871,16 @@
         <v>11</v>
       </c>
       <c r="K26" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" t="s">
         <v>61</v>
       </c>
-      <c r="L26" t="s">
-        <v>62</v>
-      </c>
       <c r="M26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O26">
         <v>25</v>
@@ -1890,16 +1891,16 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
         <v>63</v>
       </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27">
         <v>4000</v>
@@ -1908,16 +1909,16 @@
         <v>12</v>
       </c>
       <c r="K27" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" t="s">
         <v>63</v>
       </c>
-      <c r="L27" t="s">
-        <v>64</v>
-      </c>
       <c r="M27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O27">
         <v>4000</v>
@@ -1928,16 +1929,16 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
         <v>65</v>
       </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
       <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
         <v>41</v>
-      </c>
-      <c r="E28" t="s">
-        <v>42</v>
       </c>
       <c r="F28">
         <v>-1</v>
@@ -1946,16 +1947,16 @@
         <v>13</v>
       </c>
       <c r="K28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" t="s">
         <v>65</v>
       </c>
-      <c r="L28" t="s">
-        <v>66</v>
-      </c>
       <c r="M28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" t="s">
         <v>41</v>
-      </c>
-      <c r="N28" t="s">
-        <v>42</v>
       </c>
       <c r="O28">
         <v>-1</v>
@@ -1966,16 +1967,16 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
         <v>43</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
         <v>44</v>
-      </c>
-      <c r="D29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" t="s">
-        <v>45</v>
       </c>
       <c r="F29">
         <v>19</v>
@@ -1984,16 +1985,16 @@
         <v>14</v>
       </c>
       <c r="K29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" t="s">
         <v>43</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" t="s">
         <v>44</v>
-      </c>
-      <c r="M29" t="s">
-        <v>41</v>
-      </c>
-      <c r="N29" t="s">
-        <v>45</v>
       </c>
       <c r="O29">
         <v>19</v>
@@ -2004,16 +2005,16 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
         <v>53</v>
       </c>
-      <c r="C30" t="s">
-        <v>54</v>
-      </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -2022,16 +2023,16 @@
         <v>15</v>
       </c>
       <c r="K30" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" t="s">
         <v>53</v>
       </c>
-      <c r="L30" t="s">
-        <v>54</v>
-      </c>
       <c r="M30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O30">
         <v>10</v>
@@ -2042,16 +2043,16 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
         <v>67</v>
       </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31">
         <v>500</v>
@@ -2060,16 +2061,16 @@
         <v>16</v>
       </c>
       <c r="K31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L31" t="s">
         <v>67</v>
       </c>
-      <c r="L31" t="s">
-        <v>68</v>
-      </c>
       <c r="M31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O31">
         <v>500</v>
@@ -2080,16 +2081,16 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
         <v>69</v>
       </c>
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32">
         <v>500</v>
@@ -2098,16 +2099,16 @@
         <v>17</v>
       </c>
       <c r="K32" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" t="s">
         <v>69</v>
       </c>
-      <c r="L32" t="s">
-        <v>70</v>
-      </c>
       <c r="M32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O32">
         <v>500</v>
@@ -2118,16 +2119,16 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
         <v>71</v>
       </c>
-      <c r="C33" t="s">
-        <v>72</v>
-      </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33">
         <v>100</v>
@@ -2136,16 +2137,16 @@
         <v>18</v>
       </c>
       <c r="K33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" t="s">
         <v>71</v>
       </c>
-      <c r="L33" t="s">
-        <v>72</v>
-      </c>
       <c r="M33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O33">
         <v>100</v>
@@ -2156,16 +2157,16 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34">
         <v>10</v>
@@ -2174,16 +2175,16 @@
         <v>19</v>
       </c>
       <c r="K34" t="s">
+        <v>72</v>
+      </c>
+      <c r="L34" t="s">
         <v>73</v>
       </c>
-      <c r="L34" t="s">
-        <v>74</v>
-      </c>
       <c r="M34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O34">
         <v>10</v>
@@ -2194,16 +2195,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
         <v>75</v>
       </c>
-      <c r="C35" t="s">
-        <v>76</v>
-      </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35">
         <v>10</v>
@@ -2212,16 +2213,16 @@
         <v>20</v>
       </c>
       <c r="K35" t="s">
+        <v>74</v>
+      </c>
+      <c r="L35" t="s">
         <v>75</v>
       </c>
-      <c r="L35" t="s">
-        <v>76</v>
-      </c>
       <c r="M35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O35">
         <v>10</v>
@@ -2232,16 +2233,16 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F36">
         <v>10</v>
@@ -2250,16 +2251,16 @@
         <v>21</v>
       </c>
       <c r="K36" t="s">
+        <v>76</v>
+      </c>
+      <c r="L36" t="s">
         <v>77</v>
       </c>
-      <c r="L36" t="s">
-        <v>78</v>
-      </c>
       <c r="M36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O36">
         <v>10</v>
@@ -2270,16 +2271,16 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
         <v>79</v>
       </c>
-      <c r="C37" t="s">
-        <v>80</v>
-      </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37">
         <v>150</v>
@@ -2288,16 +2289,16 @@
         <v>22</v>
       </c>
       <c r="K37" t="s">
+        <v>78</v>
+      </c>
+      <c r="L37" t="s">
         <v>79</v>
       </c>
-      <c r="L37" t="s">
-        <v>80</v>
-      </c>
       <c r="M37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O37">
         <v>150</v>
@@ -2308,16 +2309,16 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
         <v>81</v>
       </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2326,16 +2327,16 @@
         <v>23</v>
       </c>
       <c r="K38" t="s">
+        <v>80</v>
+      </c>
+      <c r="L38" t="s">
         <v>81</v>
       </c>
-      <c r="L38" t="s">
-        <v>82</v>
-      </c>
       <c r="M38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -2346,16 +2347,16 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
         <v>83</v>
       </c>
-      <c r="C39" t="s">
-        <v>84</v>
-      </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2364,16 +2365,16 @@
         <v>24</v>
       </c>
       <c r="K39" t="s">
+        <v>82</v>
+      </c>
+      <c r="L39" t="s">
         <v>83</v>
       </c>
-      <c r="L39" t="s">
-        <v>84</v>
-      </c>
       <c r="M39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -2384,16 +2385,16 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
         <v>85</v>
       </c>
-      <c r="C40" t="s">
-        <v>86</v>
-      </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -2402,16 +2403,16 @@
         <v>25</v>
       </c>
       <c r="K40" t="s">
+        <v>84</v>
+      </c>
+      <c r="L40" t="s">
         <v>85</v>
       </c>
-      <c r="L40" t="s">
-        <v>86</v>
-      </c>
       <c r="M40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O40">
         <v>10</v>
@@ -2422,16 +2423,16 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
         <v>87</v>
       </c>
-      <c r="C41" t="s">
-        <v>88</v>
-      </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41">
         <v>4000</v>
@@ -2440,16 +2441,16 @@
         <v>26</v>
       </c>
       <c r="K41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L41" t="s">
         <v>87</v>
       </c>
-      <c r="L41" t="s">
-        <v>88</v>
-      </c>
       <c r="M41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O41">
         <v>4000</v>
@@ -2460,16 +2461,16 @@
         <v>27</v>
       </c>
       <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
         <v>89</v>
       </c>
-      <c r="C42" t="s">
-        <v>90</v>
-      </c>
       <c r="D42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" t="s">
         <v>41</v>
-      </c>
-      <c r="E42" t="s">
-        <v>42</v>
       </c>
       <c r="F42">
         <v>-1</v>
@@ -2478,16 +2479,16 @@
         <v>27</v>
       </c>
       <c r="K42" t="s">
+        <v>88</v>
+      </c>
+      <c r="L42" t="s">
         <v>89</v>
       </c>
-      <c r="L42" t="s">
-        <v>90</v>
-      </c>
       <c r="M42" t="s">
+        <v>40</v>
+      </c>
+      <c r="N42" t="s">
         <v>41</v>
-      </c>
-      <c r="N42" t="s">
-        <v>42</v>
       </c>
       <c r="O42">
         <v>-1</v>
@@ -2498,16 +2499,16 @@
         <v>28</v>
       </c>
       <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
         <v>43</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" t="s">
         <v>44</v>
-      </c>
-      <c r="D43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" t="s">
-        <v>45</v>
       </c>
       <c r="F43">
         <v>19</v>
@@ -2516,16 +2517,16 @@
         <v>28</v>
       </c>
       <c r="K43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" t="s">
         <v>43</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" t="s">
         <v>44</v>
-      </c>
-      <c r="M43" t="s">
-        <v>41</v>
-      </c>
-      <c r="N43" t="s">
-        <v>45</v>
       </c>
       <c r="O43">
         <v>19</v>
@@ -2536,16 +2537,16 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
         <v>91</v>
       </c>
-      <c r="C44" t="s">
-        <v>92</v>
-      </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F44">
         <v>10</v>
@@ -2554,16 +2555,16 @@
         <v>29</v>
       </c>
       <c r="K44" t="s">
+        <v>90</v>
+      </c>
+      <c r="L44" t="s">
         <v>91</v>
       </c>
-      <c r="L44" t="s">
-        <v>92</v>
-      </c>
       <c r="M44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O44">
         <v>10</v>
@@ -2574,16 +2575,16 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
         <v>93</v>
       </c>
-      <c r="C45" t="s">
-        <v>94</v>
-      </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F45">
         <v>500</v>
@@ -2592,16 +2593,16 @@
         <v>30</v>
       </c>
       <c r="K45" t="s">
+        <v>92</v>
+      </c>
+      <c r="L45" t="s">
         <v>93</v>
       </c>
-      <c r="L45" t="s">
-        <v>94</v>
-      </c>
       <c r="M45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O45">
         <v>500</v>
@@ -2612,16 +2613,16 @@
         <v>31</v>
       </c>
       <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
         <v>95</v>
       </c>
-      <c r="C46" t="s">
-        <v>96</v>
-      </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F46">
         <v>10</v>
@@ -2630,16 +2631,16 @@
         <v>31</v>
       </c>
       <c r="K46" t="s">
+        <v>94</v>
+      </c>
+      <c r="L46" t="s">
         <v>95</v>
       </c>
-      <c r="L46" t="s">
-        <v>96</v>
-      </c>
       <c r="M46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O46">
         <v>10</v>
@@ -2650,16 +2651,16 @@
         <v>32</v>
       </c>
       <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
         <v>97</v>
       </c>
-      <c r="C47" t="s">
-        <v>98</v>
-      </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47">
         <v>4000</v>
@@ -2668,16 +2669,16 @@
         <v>32</v>
       </c>
       <c r="K47" t="s">
+        <v>96</v>
+      </c>
+      <c r="L47" t="s">
         <v>97</v>
       </c>
-      <c r="L47" t="s">
-        <v>98</v>
-      </c>
       <c r="M47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O47">
         <v>4000</v>
@@ -2685,74 +2686,74 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
         <v>29</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>30</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>31</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>32</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>33</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>34</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>35</v>
       </c>
-      <c r="I57" t="s">
-        <v>36</v>
-      </c>
       <c r="J57" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" t="s">
         <v>29</v>
       </c>
-      <c r="K57" t="s">
+      <c r="M57" t="s">
         <v>30</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>31</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>32</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>33</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>34</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>35</v>
       </c>
-      <c r="R57" t="s">
-        <v>36</v>
-      </c>
       <c r="S57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" t="s">
         <v>37</v>
       </c>
-      <c r="C58" t="s">
-        <v>38</v>
-      </c>
       <c r="K58" t="s">
+        <v>36</v>
+      </c>
+      <c r="L58" t="s">
         <v>37</v>
-      </c>
-      <c r="L58" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
@@ -2760,16 +2761,16 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" t="s">
         <v>100</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>101</v>
       </c>
-      <c r="D59" t="s">
-        <v>102</v>
-      </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59">
         <v>19</v>
@@ -2778,16 +2779,16 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
+        <v>99</v>
+      </c>
+      <c r="L59" t="s">
         <v>100</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>101</v>
       </c>
-      <c r="M59" t="s">
-        <v>102</v>
-      </c>
       <c r="N59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O59">
         <v>19</v>
@@ -2796,5 +2797,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>